--- a/wksp_alumbrado/res/Protocolo de montaje de luminarias  SSEE Parinas.xlsx
+++ b/wksp_alumbrado/res/Protocolo de montaje de luminarias  SSEE Parinas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07d9230a41b251c3/SNN4008/Protocolos/Archivos Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_alumbrado\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{00E1FCA5-34FD-491C-BA26-15AA34D9FE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A9BD42-0197-441F-BFF6-68B40CED294B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF730DE-E0E8-4810-9602-29AD2023AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="REG-782-ELE-0010" sheetId="38" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'REG-782-ELE-0010'!$B$2:$O$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'REG-782-ELE-0010'!$B$2:$O$43</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Protocolo</t>
   </si>
   <si>
-    <t xml:space="preserve">Disciplina: </t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Disposición del equipo de acuerdo a planos de proyecto</t>
   </si>
   <si>
-    <t>Condición mecánica del equipo</t>
-  </si>
-  <si>
     <t>Verificar coincidencia entre rotulos, equipos y planos</t>
   </si>
   <si>
@@ -120,15 +114,6 @@
     <t>Ultima Revisión</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Fecha Trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correlativo </t>
-  </si>
-  <si>
     <t>Toma Conocimiento ITO</t>
   </si>
   <si>
@@ -153,7 +138,46 @@
     <t>Fecha Ultima Rev.</t>
   </si>
   <si>
+    <t>Fecha Trabajo:</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>Nombre: camilo Miño</t>
+  </si>
+  <si>
+    <t>Cargo:supervisor</t>
+  </si>
+  <si>
+    <t>Cargo: Supervisor</t>
+  </si>
+  <si>
+    <t>SNN4008-E-PRN-15-EL-PL-0001-L0001</t>
+  </si>
+  <si>
+    <t>Fecha:26-10-2023</t>
+  </si>
+  <si>
+    <t>Fecha: 26-10-2023</t>
+  </si>
+  <si>
+    <t>Nombre: Luis Riveros</t>
+  </si>
+  <si>
+    <t>Disciplina: Eléctrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luminarias </t>
+  </si>
+  <si>
     <t>SNN 4008 E - Nueva Subestacion seleccionadora parinas 500/220 kV</t>
+  </si>
+  <si>
+    <t>Area de trabajo:</t>
+  </si>
+  <si>
+    <t>Correlativo:</t>
   </si>
 </sst>
 </file>
@@ -792,7 +816,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,30 +839,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,12 +857,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,15 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -915,24 +900,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -942,38 +909,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -981,8 +999,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1008,14 +1050,113 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1034,30 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1083,25 +1200,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,127 +1258,70 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1253,9 +1340,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1263,19 +1347,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1713,16 +1785,36 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3406364D-54FD-4DFF-8A3F-39BF26657ECC}">
+  <we:reference id="wa104379279" version="2.1.0.0" store="es-MX" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104379279" version="2.1.0.0" store="WA104379279" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <tabColor indexed="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O129"/>
+  <dimension ref="B1:O127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -1743,861 +1835,867 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:15" ht="24.75" customHeight="1" thickTop="1">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="69" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="26"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="22">
+        <v>1</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="98">
-        <v>45184</v>
-      </c>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81">
+        <v>45222</v>
+      </c>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="2:15" ht="36.75" customHeight="1" thickTop="1">
-      <c r="B5" s="149" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="156" t="s">
+      <c r="B5" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="171"/>
+      <c r="D5" s="176" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="63"/>
+      <c r="L5" s="59">
+        <v>1</v>
+      </c>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="2:15" ht="36.75" customHeight="1">
+      <c r="B6" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="66"/>
-    </row>
-    <row r="6" spans="2:15" ht="36.75" customHeight="1">
-      <c r="B6" s="157" t="s">
+      <c r="E6" s="115"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="174" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="115"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="100">
+        <v>45219</v>
+      </c>
+      <c r="M6" s="100"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="2:15" ht="33" customHeight="1">
+      <c r="B7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="154"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="153" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="159"/>
-    </row>
-    <row r="7" spans="2:15" ht="33" customHeight="1">
-      <c r="B7" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="161"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="177" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="177"/>
+      <c r="F7" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="102"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="116"/>
     </row>
     <row r="8" spans="2:15" ht="6" customHeight="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="29"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="13.8">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="136" t="s">
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="130" t="s">
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="105"/>
+    </row>
+    <row r="10" spans="2:15" ht="13.8">
+      <c r="B10" s="135"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="132"/>
-    </row>
-    <row r="10" spans="2:15" ht="13.8">
-      <c r="B10" s="142"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="24" t="s">
+      <c r="G10" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="H10" s="173"/>
+      <c r="I10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="152"/>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1">
+      <c r="B11" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="133"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="135"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="84" t="s">
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="85"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1">
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="87"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1">
+      <c r="B13" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="2:15" ht="18" customHeight="1">
-      <c r="B13" s="84" t="s">
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="90"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1">
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="93"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1">
+      <c r="B15" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="32"/>
-    </row>
-    <row r="14" spans="2:15" ht="18" customHeight="1">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="32"/>
-    </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1">
-      <c r="B15" s="84" t="s">
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="90"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1">
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="93"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" customHeight="1">
+      <c r="B17" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="2:15" ht="18" customHeight="1">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
-      <c r="B17" s="84" t="s">
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="96"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" customHeight="1">
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="99"/>
+    </row>
+    <row r="19" spans="2:15" ht="18" customHeight="1">
+      <c r="B19" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="85"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" customHeight="1">
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
+    </row>
+    <row r="21" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B21" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="85"/>
+    </row>
+    <row r="22" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="87"/>
+    </row>
+    <row r="23" spans="2:15" ht="15" customHeight="1">
+      <c r="B23" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="85"/>
+    </row>
+    <row r="24" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="87"/>
+    </row>
+    <row r="25" spans="2:15" ht="14.1" customHeight="1">
+      <c r="B25" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="90"/>
+    </row>
+    <row r="26" spans="2:15" ht="14.1" customHeight="1">
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="93"/>
+    </row>
+    <row r="27" spans="2:15" ht="14.1" customHeight="1">
+      <c r="B27" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
-      <c r="B19" s="84" t="s">
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="90"/>
+    </row>
+    <row r="28" spans="2:15" ht="14.1" customHeight="1">
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="93"/>
+    </row>
+    <row r="29" spans="2:15" ht="14.1" customHeight="1">
+      <c r="B29" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
-      <c r="B21" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="32"/>
-    </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="32"/>
-    </row>
-    <row r="23" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B23" s="84" t="s">
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="30"/>
-    </row>
-    <row r="24" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="31"/>
-    </row>
-    <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="84" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="90"/>
+    </row>
+    <row r="30" spans="2:15" ht="14.1" customHeight="1">
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="93"/>
+    </row>
+    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38"/>
+    </row>
+    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="147"/>
+    </row>
+    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="20"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="26"/>
+    </row>
+    <row r="35" spans="2:15" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B35" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="143"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="144"/>
+      <c r="G35" s="142" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="144"/>
+    </row>
+    <row r="36" spans="2:15" ht="18" customHeight="1" thickTop="1">
+      <c r="B36" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="2:15" ht="13.8">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B27" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="30"/>
-    </row>
-    <row r="28" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="31"/>
-    </row>
-    <row r="29" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B29" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="30"/>
-    </row>
-    <row r="30" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="31" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B31" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="30"/>
-    </row>
-    <row r="32" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="31"/>
-    </row>
-    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="60"/>
-    </row>
-    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="107"/>
-    </row>
-    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="34"/>
-    </row>
-    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="39"/>
-    </row>
-    <row r="37" spans="2:15" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B37" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="75" t="s">
+      <c r="C36" s="168"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="158" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="159"/>
+      <c r="G36" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="75" t="s">
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="32"/>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1">
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="17"/>
+    </row>
+    <row r="38" spans="2:15" ht="18" customHeight="1">
+      <c r="B38" s="164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="165"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="163"/>
+      <c r="G38" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="77"/>
-    </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1" thickTop="1">
-      <c r="B38" s="127" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="128"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="119"/>
-      <c r="G38" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="51"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="34"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="124"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="44"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="44"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="43"/>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="27"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="35"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="123"/>
-      <c r="G40" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="56"/>
+      <c r="B40" s="164" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="165"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="163"/>
+      <c r="G40" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="34"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="124"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="57"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="35"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="124" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="123"/>
-      <c r="G42" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="56"/>
-    </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
-      <c r="B43" s="124"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="57"/>
-    </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
-      <c r="B44" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="109"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="115"/>
-      <c r="G44" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="27"/>
-    </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B45" s="111"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="52"/>
-    </row>
-    <row r="46" spans="2:15" ht="12.75" customHeight="1" thickTop="1"/>
+      <c r="B42" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="154" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="155"/>
+      <c r="G42" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="17"/>
+    </row>
+    <row r="43" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B43" s="151"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="33"/>
+    </row>
+    <row r="44" spans="2:15" ht="12.75" customHeight="1" thickTop="1"/>
+    <row r="45" spans="2:15" ht="13.5" customHeight="1"/>
+    <row r="46" spans="2:15" ht="13.5" customHeight="1"/>
     <row r="47" spans="2:15" ht="13.5" customHeight="1"/>
     <row r="48" spans="2:15" ht="13.5" customHeight="1"/>
     <row r="49" ht="13.5" customHeight="1"/>
     <row r="50" ht="13.5" customHeight="1"/>
     <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
     <row r="53" ht="13.5" customHeight="1"/>
     <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
     <row r="58" ht="13.5" customHeight="1"/>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
     <row r="62" ht="13.5" customHeight="1"/>
     <row r="63" ht="12.75" customHeight="1"/>
     <row r="64" ht="13.5" customHeight="1"/>
     <row r="65" spans="2:4" ht="12.75" customHeight="1"/>
-    <row r="66" spans="2:4" ht="13.5" customHeight="1"/>
-    <row r="67" spans="2:4" ht="12.75" customHeight="1"/>
-    <row r="68" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="4"/>
+    <row r="66" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:4" ht="13.5" customHeight="1">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+    <row r="71" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" ht="13.5" customHeight="1">
       <c r="B73" s="2"/>
@@ -2624,12 +2722,12 @@
       <c r="C77" s="2"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="2:4" ht="13.5" customHeight="1">
+    <row r="78" spans="2:4">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="2:4" ht="13.5" customHeight="1">
+    <row r="79" spans="2:4">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4"/>
@@ -2655,24 +2753,24 @@
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="2"/>
@@ -2705,24 +2803,24 @@
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2"/>
@@ -2734,15 +2832,13 @@
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="4"/>
+    <row r="103" spans="2:4">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="4"/>
@@ -2752,13 +2848,11 @@
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+    <row r="121" spans="4:4">
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" s="6"/>
@@ -2773,93 +2867,152 @@
       <c r="D126" s="6"/>
     </row>
     <row r="127" spans="4:4">
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="5"/>
+      <c r="D127" s="5"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="65">
+  <mergeCells count="80">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H12"/>
-    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="J27:O28"/>
+    <mergeCell ref="J29:O30"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="B15:E16"/>
-    <mergeCell ref="J9:O10"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="B9:E10"/>
+    <mergeCell ref="G13:H14"/>
     <mergeCell ref="G15:H16"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="J9:O10"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
     <mergeCell ref="G17:H18"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="B34:O34"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="G19:H20"/>
     <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I19:I20"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="J11:O12"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J17:O18"/>
+    <mergeCell ref="J19:O20"/>
+    <mergeCell ref="J21:O22"/>
+    <mergeCell ref="J23:O24"/>
+    <mergeCell ref="J25:O26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.22" right="0.19685039370078741" top="0.39370078740157483" bottom="0.28000000000000003" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="GeneralDocument" ma:contentTypeID="0x010100CD3C072A19DDA24F86F05808F85E9A7B0022A421D4110DA74CBBA3F217E0495093" ma:contentTypeVersion="23" ma:contentTypeDescription="Documento General" ma:contentTypeScope="" ma:versionID="c7d8de2dfba8aae36f1444f44ed13f8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xmlns:ns3="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91e1cbcaa82a30355d707610568b12c5" ns2:_="" ns3:_="">
     <xsd:import namespace="0e4fcc6c-070f-469b-8128-b34a2d557c9a"/>
@@ -3173,7 +3326,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DocumentType xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
@@ -3197,7 +3350,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3206,57 +3359,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C6638B-5282-4C7B-87B3-F5F1E5A70B77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAEBDD23-872D-4175-9BC2-A5F906B1C103}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3275,7 +3386,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED20CD-F891-4D3F-94DC-D1CE0FE9E1F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc"/>
@@ -3292,18 +3403,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788E966A-01BC-4E62-9994-CFC40BB5A1C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C6638B-5282-4C7B-87B3-F5F1E5A70B77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/wksp_alumbrado/res/Protocolo de montaje de luminarias  SSEE Parinas.xlsx
+++ b/wksp_alumbrado/res/Protocolo de montaje de luminarias  SSEE Parinas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_alumbrado\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicea\PycharmProjects\Protocol_Workshop\wksp_alumbrado\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF730DE-E0E8-4810-9602-29AD2023AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9FF6A1-22FB-46E0-8555-CB3A1788FCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5712" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG-782-ELE-0010" sheetId="38" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Protocolo</t>
   </si>
@@ -144,25 +144,7 @@
     <t>✔</t>
   </si>
   <si>
-    <t>Nombre: camilo Miño</t>
-  </si>
-  <si>
-    <t>Cargo:supervisor</t>
-  </si>
-  <si>
-    <t>Cargo: Supervisor</t>
-  </si>
-  <si>
     <t>SNN4008-E-PRN-15-EL-PL-0001-L0001</t>
-  </si>
-  <si>
-    <t>Fecha:26-10-2023</t>
-  </si>
-  <si>
-    <t>Fecha: 26-10-2023</t>
-  </si>
-  <si>
-    <t>Nombre: Luis Riveros</t>
   </si>
   <si>
     <t>Disciplina: Eléctrica</t>
@@ -993,17 +975,122 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,123 +1102,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,11 +1122,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1227,128 +1224,113 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1813,8 +1795,8 @@
   </sheetPr>
   <dimension ref="B1:O127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -1835,43 +1817,43 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:15" ht="24.75" customHeight="1" thickTop="1">
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="117" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="73" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="70" t="s">
+      <c r="K2" s="153"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="156"/>
     </row>
     <row r="3" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="119" t="s">
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="75" t="s">
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="161"/>
       <c r="M3" s="22">
         <v>1</v>
       </c>
@@ -1879,42 +1861,42 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="78" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81">
+      <c r="K4" s="163"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="165">
         <v>45222</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="167"/>
     </row>
     <row r="5" spans="2:15" ht="36.75" customHeight="1" thickTop="1">
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="176" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="153"/>
       <c r="L5" s="59">
         <v>1</v>
       </c>
@@ -1923,52 +1905,52 @@
       <c r="O5" s="61"/>
     </row>
     <row r="6" spans="2:15" ht="36.75" customHeight="1">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="174" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="175"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="39" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="100">
+      <c r="L6" s="142">
         <v>45219</v>
       </c>
-      <c r="M6" s="100"/>
+      <c r="M6" s="142"/>
       <c r="N6" s="39"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="2:15" ht="33" customHeight="1">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="177" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="116"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="144" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="144"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="151"/>
     </row>
     <row r="8" spans="2:15" ht="6" customHeight="1">
       <c r="B8" s="18"/>
@@ -1987,408 +1969,408 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="13.8">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="129" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="103" t="s">
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="105"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="147"/>
     </row>
     <row r="10" spans="2:15" ht="13.8">
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="172" t="s">
+      <c r="G10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="173"/>
+      <c r="H10" s="65"/>
       <c r="I10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150"/>
     </row>
     <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="64" t="s">
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="139"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="85"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="169"/>
     </row>
     <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="141"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="87"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="171"/>
     </row>
     <row r="13" spans="2:15" ht="18" customHeight="1">
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="64" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="90"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="117"/>
     </row>
     <row r="14" spans="2:15" ht="18" customHeight="1">
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="93"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
     </row>
     <row r="15" spans="2:15" ht="18" customHeight="1">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="64" t="s">
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="90"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="117"/>
     </row>
     <row r="16" spans="2:15" ht="18" customHeight="1">
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="93"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
     </row>
     <row r="17" spans="2:15" ht="18" customHeight="1">
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="64" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="96"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="174"/>
     </row>
     <row r="18" spans="2:15" ht="18" customHeight="1">
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="99"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="177"/>
     </row>
     <row r="19" spans="2:15" ht="18" customHeight="1">
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="64" t="s">
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="85"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="168"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="169"/>
     </row>
     <row r="20" spans="2:15" ht="18" customHeight="1">
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="87"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="171"/>
     </row>
     <row r="21" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="85"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="169"/>
     </row>
     <row r="22" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="87"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="171"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="64" t="s">
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="85"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="169"/>
     </row>
     <row r="24" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B24" s="112"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="87"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="171"/>
     </row>
     <row r="25" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="64" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="90"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="117"/>
     </row>
     <row r="26" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B26" s="112"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="120"/>
     </row>
     <row r="27" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="64" t="s">
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="90"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="117"/>
     </row>
     <row r="28" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="93"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="120"/>
     </row>
     <row r="29" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="64" t="s">
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="90"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
     </row>
     <row r="30" spans="2:15" ht="14.1" customHeight="1">
-      <c r="B30" s="112"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="93"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="120"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="36"/>
@@ -2407,22 +2389,22 @@
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="147"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="114"/>
     </row>
     <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="20"/>
@@ -2457,39 +2439,39 @@
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="2:15" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B35" s="142" t="s">
+      <c r="B35" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="142" t="s">
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="144"/>
-      <c r="G35" s="142" t="s">
+      <c r="F35" s="83"/>
+      <c r="G35" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="142" t="s">
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="144"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="83"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" thickTop="1">
-      <c r="B36" s="167" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="168"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="158" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="159"/>
+      <c r="B36" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="98"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="89"/>
       <c r="G36" s="48" t="s">
         <v>20</v>
       </c>
@@ -2505,11 +2487,11 @@
       <c r="O36" s="32"/>
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1">
-      <c r="B37" s="164"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="161"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="91"/>
       <c r="G37" s="41"/>
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
@@ -2521,15 +2503,15 @@
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="164" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="162" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="163"/>
+      <c r="B38" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="95"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="93"/>
       <c r="G38" s="51" t="s">
         <v>21</v>
       </c>
@@ -2545,11 +2527,11 @@
       <c r="O38" s="34"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="164"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="161"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="91"/>
       <c r="G39" s="43"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
@@ -2561,15 +2543,15 @@
       <c r="O39" s="35"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="163"/>
+      <c r="B40" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="95"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="93"/>
       <c r="G40" s="51" t="s">
         <v>1</v>
       </c>
@@ -2585,11 +2567,11 @@
       <c r="O40" s="34"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="164"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="161"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="91"/>
       <c r="G41" s="43"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
@@ -2601,15 +2583,15 @@
       <c r="O41" s="35"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="148" t="s">
+      <c r="B42" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="154" t="s">
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="155"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="53" t="s">
         <v>22</v>
       </c>
@@ -2625,11 +2607,11 @@
       <c r="O42" s="17"/>
     </row>
     <row r="43" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B43" s="151"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="157"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="55"/>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
@@ -2872,34 +2854,42 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="80">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="J27:O28"/>
-    <mergeCell ref="J29:O30"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="J11:O12"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J17:O18"/>
+    <mergeCell ref="J19:O20"/>
+    <mergeCell ref="J21:O22"/>
+    <mergeCell ref="J23:O24"/>
+    <mergeCell ref="J25:O26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="J9:O10"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:O7"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I4"/>
     <mergeCell ref="B25:E26"/>
@@ -2916,42 +2906,34 @@
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="G13:H14"/>
     <mergeCell ref="G15:H16"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="J9:O10"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="J11:O12"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J15:O16"/>
-    <mergeCell ref="J17:O18"/>
-    <mergeCell ref="J19:O20"/>
-    <mergeCell ref="J21:O22"/>
-    <mergeCell ref="J23:O24"/>
-    <mergeCell ref="J25:O26"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="J27:O28"/>
+    <mergeCell ref="J29:O30"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2964,55 +2946,38 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentType xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
+    <lh_idioma xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
+    <Inicializar_x0020_Proyecto xmlns="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Inicializar_x0020_Proyecto>
+    <TaxCatchAll xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <lh_código xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
+    <lh_revisión xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a">TZJ3W5HKX7DT-1756818782-708554</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a">
+      <Url>https://abengoa.sharepoint.com/sites/lh-cl/_layouts/15/DocIdRedir.aspx?ID=TZJ3W5HKX7DT-1756818782-708554</Url>
+      <Description>TZJ3W5HKX7DT-1756818782-708554</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="GeneralDocument" ma:contentTypeID="0x010100CD3C072A19DDA24F86F05808F85E9A7B0022A421D4110DA74CBBA3F217E0495093" ma:contentTypeVersion="23" ma:contentTypeDescription="Documento General" ma:contentTypeScope="" ma:versionID="c7d8de2dfba8aae36f1444f44ed13f8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xmlns:ns3="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91e1cbcaa82a30355d707610568b12c5" ns2:_="" ns3:_="">
     <xsd:import namespace="0e4fcc6c-070f-469b-8128-b34a2d557c9a"/>
@@ -3326,48 +3291,82 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentType xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
-    <lh_idioma xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
-    <Inicializar_x0020_Proyecto xmlns="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Inicializar_x0020_Proyecto>
-    <TaxCatchAll xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <lh_código xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
-    <lh_revisión xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a">TZJ3W5HKX7DT-1756818782-708554</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0e4fcc6c-070f-469b-8128-b34a2d557c9a">
-      <Url>https://abengoa.sharepoint.com/sites/lh-cl/_layouts/15/DocIdRedir.aspx?ID=TZJ3W5HKX7DT-1756818782-708554</Url>
-      <Description>TZJ3W5HKX7DT-1756818782-708554</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C6638B-5282-4C7B-87B3-F5F1E5A70B77}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788E966A-01BC-4E62-9994-CFC40BB5A1C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED20CD-F891-4D3F-94DC-D1CE0FE9E1F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc"/>
+    <ds:schemaRef ds:uri="0e4fcc6c-070f-469b-8128-b34a2d557c9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAEBDD23-872D-4175-9BC2-A5F906B1C103}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3386,27 +3385,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED20CD-F891-4D3F-94DC-D1CE0FE9E1F1}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C6638B-5282-4C7B-87B3-F5F1E5A70B77}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="af84ee12-7a4b-4cd8-bb0a-9aba2e1192fc"/>
-    <ds:schemaRef ds:uri="0e4fcc6c-070f-469b-8128-b34a2d557c9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788E966A-01BC-4E62-9994-CFC40BB5A1C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>